--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I2" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="J2" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>3.3</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -700,7 +700,7 @@
         <v>1.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -676,7 +676,7 @@
         <v>2.68</v>
       </c>
       <c r="I2" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,135 +643,540 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Finnish Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ilves</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X2" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Danish 1st Division</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13:30:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X3" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>190</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>2025-10-16</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Gremio</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Sao Paulo</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F5" t="n">
         <v>2.94</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G5" t="n">
         <v>3.25</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H5" t="n">
         <v>2.68</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I5" t="n">
         <v>2.92</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J5" t="n">
         <v>3.1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K5" t="n">
         <v>3.3</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.55</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q5" t="n">
         <v>2.56</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>2.04</v>
       </c>
       <c r="G2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -685,13 +685,13 @@
         <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.16</v>
@@ -715,25 +715,25 @@
         <v>2.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="n">
         <v>70</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
@@ -742,22 +742,22 @@
         <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
         <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
         <v>23</v>
@@ -814,7 +814,7 @@
         <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>4.4</v>
@@ -823,31 +823,31 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
         <v>1.32</v>
@@ -856,7 +856,7 @@
         <v>1.84</v>
       </c>
       <c r="X3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>26</v>
@@ -865,7 +865,7 @@
         <v>44</v>
       </c>
       <c r="AA3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="n">
         <v>17.5</v>
@@ -895,16 +895,16 @@
         <v>36</v>
       </c>
       <c r="AK3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,13 +940,13 @@
         <v>5.4</v>
       </c>
       <c r="G4" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="H4" t="n">
         <v>1.63</v>
       </c>
       <c r="I4" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -958,7 +958,7 @@
         <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>3.7</v>
@@ -967,7 +967,7 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q4" t="n">
         <v>1.86</v>
@@ -985,7 +985,7 @@
         <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W4" t="n">
         <v>1.17</v>
@@ -1048,136 +1048,271 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>General Caballero</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Club Atletico Tembetary</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>2025-10-16</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Gremio</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Sao Paulo</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="F6" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.68</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="I6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.3</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="L6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N6" t="n">
         <v>1.55</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
+      <c r="O6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G2" t="n">
         <v>2.14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -715,34 +715,34 @@
         <v>2.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
         <v>1.87</v>
       </c>
       <c r="X2" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z2" t="n">
         <v>980</v>
       </c>
-      <c r="Z2" t="n">
-        <v>38</v>
-      </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>19</v>
-      </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
@@ -751,28 +751,28 @@
         <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
         <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -805,13 +805,13 @@
         <v>1.97</v>
       </c>
       <c r="G3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
@@ -826,7 +826,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
@@ -838,73 +838,73 @@
         <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
         <v>1.84</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK3" t="n">
         <v>21</v>
       </c>
-      <c r="AG3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,13 +940,13 @@
         <v>5.4</v>
       </c>
       <c r="G4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -961,13 +961,13 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
         <v>1.86</v>
@@ -985,61 +985,61 @@
         <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB4" t="n">
         <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
         <v>190</v>
       </c>
       <c r="AK4" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AL4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1111,7 +1111,7 @@
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J6" t="n">
         <v>3.15</v>
@@ -1231,37 +1231,37 @@
         <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>1.55</v>
+        <v>2.56</v>
       </c>
       <c r="O6" t="n">
         <v>1.56</v>
       </c>
       <c r="P6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q6" t="n">
         <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S6" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W6" t="n">
         <v>1.45</v>
       </c>
       <c r="X6" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.199999999999999</v>
@@ -1291,13 +1291,13 @@
         <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>980</v>
@@ -1309,10 +1309,10 @@
         <v>230</v>
       </c>
       <c r="AN6" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,10 +673,10 @@
         <v>2.14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -697,22 +697,22 @@
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R2" t="n">
         <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="T2" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="U2" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="V2" t="n">
         <v>1.4</v>
@@ -724,22 +724,22 @@
         <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
         <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,16 +748,16 @@
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>22</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>24</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -829,34 +829,34 @@
         <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
         <v>19</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G4" t="n">
         <v>6.6</v>
@@ -946,13 +946,13 @@
         <v>1.64</v>
       </c>
       <c r="I4" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
@@ -961,76 +961,76 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
         <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W4" t="n">
         <v>1.18</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
         <v>190</v>
       </c>
       <c r="AK4" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G6" t="n">
         <v>3.25</v>
@@ -1231,10 +1231,10 @@
         <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O6" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P6" t="n">
         <v>1.54</v>
@@ -1255,7 +1255,7 @@
         <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
         <v>1.45</v>
@@ -1285,7 +1285,7 @@
         <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
         <v>14.5</v>
@@ -1312,6 +1312,411 @@
         <v>60</v>
       </c>
       <c r="AO6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Quindio</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tigres FC Zipaquira</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EC Vitoria Salvador</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="X9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>350</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>280</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AO9" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,88 +667,88 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G2" t="n">
         <v>2.14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.1</v>
       </c>
-      <c r="K2" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T2" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W2" t="n">
         <v>1.87</v>
       </c>
       <c r="X2" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y2" t="n">
         <v>980</v>
       </c>
-      <c r="Y2" t="n">
-        <v>22</v>
-      </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
         <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
         <v>15.5</v>
@@ -757,22 +757,22 @@
         <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>980</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>1.32</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>1.36</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,40 +826,40 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>1.78</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>1.21</v>
       </c>
       <c r="T3" t="n">
-        <v>1.61</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>2.4</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
         <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
         <v>980</v>
@@ -868,34 +868,34 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
         <v>980</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.5</v>
+        <v>2.14</v>
       </c>
       <c r="G4" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
         <v>1.64</v>
       </c>
       <c r="I4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>1.11</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.97</v>
+        <v>1.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.03</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W4" t="n">
         <v>1.18</v>
       </c>
       <c r="X4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="5">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I6" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J6" t="n">
         <v>3.15</v>
@@ -1228,88 +1228,88 @@
         <v>1.59</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="O6" t="n">
         <v>1.55</v>
       </c>
       <c r="P6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.54</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>6.4</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>1.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>3.95</v>
+        <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>1.43</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>1.61</v>
       </c>
       <c r="H8" t="n">
-        <v>2.72</v>
+        <v>6.8</v>
       </c>
       <c r="I8" t="n">
-        <v>2.94</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.62</v>
+        <v>1.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.62</v>
+        <v>1.99</v>
       </c>
       <c r="R8" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="S8" t="n">
-        <v>5.4</v>
+        <v>1.99</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.47</v>
+        <v>2.78</v>
       </c>
       <c r="X8" t="n">
-        <v>9.199999999999999</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.4</v>
+        <v>55</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>870</v>
       </c>
       <c r="AA8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="AE8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>560</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AL8" t="n">
-        <v>95</v>
+        <v>990</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AO8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,120 +1603,390 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.37</v>
+        <v>2.58</v>
       </c>
       <c r="G9" t="n">
-        <v>1.41</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>11.5</v>
+        <v>2.52</v>
       </c>
       <c r="I9" t="n">
-        <v>13.5</v>
+        <v>870</v>
       </c>
       <c r="J9" t="n">
-        <v>4.8</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>1.06</v>
       </c>
       <c r="O9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
         <v>1.37</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="X9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="G10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="X10" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>850</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC10" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>350</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG9" t="n">
+      <c r="AD10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>390</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG10" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>280</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AH10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>370</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL10" t="n">
         <v>65</v>
       </c>
-      <c r="AM9" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AM10" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CD Olimpia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CD Motagua</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -685,7 +685,7 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -694,25 +694,25 @@
         <v>6.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R2" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T2" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="V2" t="n">
         <v>1.38</v>
@@ -721,10 +721,10 @@
         <v>1.87</v>
       </c>
       <c r="X2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
         <v>32</v>
@@ -733,10 +733,10 @@
         <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
         <v>15.5</v>
@@ -745,19 +745,19 @@
         <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI2" t="n">
         <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK2" t="n">
         <v>18.5</v>
@@ -766,13 +766,13 @@
         <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>980</v>
+        <v>2.14</v>
       </c>
       <c r="H3" t="n">
-        <v>1.32</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.36</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,88 +826,88 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>1.78</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>1.21</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>1.61</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>2.42</v>
       </c>
       <c r="V3" t="n">
         <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.14</v>
+        <v>5.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="I4" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -955,94 +955,94 @@
         <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.11</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.38</v>
+        <v>1.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.03</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH4" t="n">
         <v>22</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I6" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.59</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.55</v>
-      </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>2.74</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S6" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
         <v>1.54</v>
       </c>
       <c r="W6" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1366,13 +1366,13 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q7" t="n">
         <v>1.25</v>
@@ -1384,10 +1384,10 @@
         <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G8" t="n">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="H8" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>1.25</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.81</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.99</v>
+        <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.03</v>
+        <v>2.3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>1.63</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>580</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>270</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>260</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL8" t="n">
         <v>55</v>
       </c>
-      <c r="Z8" t="n">
-        <v>870</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>560</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>990</v>
-      </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AN8" t="n">
-        <v>40</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.58</v>
+        <v>2.98</v>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>870</v>
+        <v>2.86</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>3.2</v>
@@ -1633,43 +1633,43 @@
         <v>1.56</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>1.06</v>
+        <v>2.66</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="R9" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="V9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.46</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.4</v>
       </c>
       <c r="X9" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z9" t="n">
         <v>16.5</v>
@@ -1678,10 +1678,10 @@
         <v>48</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
         <v>14</v>
@@ -1690,10 +1690,10 @@
         <v>42</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>24</v>
@@ -1705,7 +1705,7 @@
         <v>60</v>
       </c>
       <c r="AK9" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AL9" t="n">
         <v>75</v>
@@ -1717,7 +1717,7 @@
         <v>60</v>
       </c>
       <c r="AO9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K10" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
@@ -1771,34 +1771,34 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>1.25</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.36</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="V10" t="n">
         <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>2.14</v>
+        <v>3.5</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
@@ -1813,7 +1813,7 @@
         <v>850</v>
       </c>
       <c r="AB10" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AC10" t="n">
         <v>12.5</v>
@@ -1828,10 +1828,10 @@
         <v>6.8</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AI10" t="n">
         <v>370</v>
@@ -1840,19 +1840,19 @@
         <v>10.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
         <v>450</v>
       </c>
       <c r="AN10" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>760</v>
+        <v>880</v>
       </c>
     </row>
     <row r="11">
@@ -1894,7 +1894,7 @@
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K11" t="n">
         <v>1000</v>
@@ -1906,28 +1906,28 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="Q11" t="n">
         <v>1.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
         <v>1.28</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J2" t="n">
         <v>3.95</v>
@@ -691,40 +691,40 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.72</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.74</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
         <v>32</v>
@@ -733,10 +733,10 @@
         <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>15.5</v>
@@ -769,7 +769,7 @@
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
@@ -826,40 +826,40 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
         <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X3" t="n">
         <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
         <v>36</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>9.6</v>
@@ -880,7 +880,7 @@
         <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -895,16 +895,16 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO3" t="n">
         <v>36</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G4" t="n">
         <v>6.4</v>
@@ -946,37 +946,37 @@
         <v>1.66</v>
       </c>
       <c r="I4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
@@ -985,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="W4" t="n">
         <v>1.19</v>
@@ -1000,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB4" t="n">
         <v>21</v>
@@ -1024,7 +1024,7 @@
         <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="n">
         <v>190</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="5">
@@ -1213,16 +1213,16 @@
         <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J6" t="n">
         <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.6</v>
@@ -1231,7 +1231,7 @@
         <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O6" t="n">
         <v>1.59</v>
@@ -1249,7 +1249,7 @@
         <v>5.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
         <v>1.73</v>
@@ -1273,13 +1273,13 @@
         <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC6" t="n">
         <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>980</v>
@@ -1519,7 +1519,7 @@
         <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="n">
         <v>1.63</v>
@@ -1531,7 +1531,7 @@
         <v>3.1</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
         <v>29</v>
@@ -1540,7 +1540,7 @@
         <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AB8" t="n">
         <v>7</v>
@@ -1561,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="AI8" t="n">
         <v>250</v>
@@ -1582,7 +1582,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO8" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9">
@@ -1615,16 +1615,16 @@
         <v>2.98</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="I9" t="n">
         <v>2.86</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
         <v>3.2</v>
@@ -1633,55 +1633,55 @@
         <v>1.56</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P9" t="n">
         <v>1.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="R9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="U9" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W9" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
         <v>14</v>
@@ -1690,7 +1690,7 @@
         <v>42</v>
       </c>
       <c r="AF9" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -1705,7 +1705,7 @@
         <v>60</v>
       </c>
       <c r="AK9" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="n">
         <v>75</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H10" t="n">
         <v>11</v>
@@ -1759,10 +1759,10 @@
         <v>14.5</v>
       </c>
       <c r="J10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
@@ -1771,13 +1771,13 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q10" t="n">
         <v>2.06</v>
@@ -1786,7 +1786,7 @@
         <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T10" t="n">
         <v>2.48</v>
@@ -1795,22 +1795,22 @@
         <v>1.56</v>
       </c>
       <c r="V10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z10" t="n">
         <v>130</v>
       </c>
       <c r="AA10" t="n">
-        <v>850</v>
+        <v>810</v>
       </c>
       <c r="AB10" t="n">
         <v>6.6</v>
@@ -1822,7 +1822,7 @@
         <v>55</v>
       </c>
       <c r="AE10" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="AF10" t="n">
         <v>6.8</v>
@@ -1843,7 +1843,7 @@
         <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
         <v>450</v>
@@ -1852,7 +1852,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>880</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11">
@@ -1903,7 +1903,7 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
         <v>1.36</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -667,70 +667,70 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="G2" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I2" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
         <v>1.54</v>
       </c>
       <c r="U2" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
         <v>15.5</v>
@@ -739,37 +739,37 @@
         <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>2.12</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J3" t="n">
         <v>3.85</v>
@@ -838,10 +838,10 @@
         <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="T3" t="n">
         <v>1.64</v>
@@ -865,7 +865,7 @@
         <v>36</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB3" t="n">
         <v>15</v>
@@ -874,7 +874,7 @@
         <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE3" t="n">
         <v>46</v>
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN3" t="n">
         <v>12.5</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G4" t="n">
         <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="I4" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -970,25 +970,25 @@
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>19.5</v>
@@ -997,22 +997,22 @@
         <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>60</v>
@@ -1024,25 +1024,25 @@
         <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
         <v>190</v>
       </c>
       <c r="AK4" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,37 +1096,37 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
       </c>
       <c r="P5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="I6" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J6" t="n">
         <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L6" t="n">
         <v>1.6</v>
@@ -1231,16 +1231,16 @@
         <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="O6" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="P6" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R6" t="n">
         <v>1.19</v>
@@ -1252,67 +1252,67 @@
         <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
         <v>1.54</v>
       </c>
       <c r="W6" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>210</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>210</v>
+      </c>
+      <c r="AO6" t="n">
         <v>55</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1345,16 +1345,16 @@
         <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>1.68</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>5.7</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.3</v>
+        <v>1.94</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>1.3</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="T7" t="n">
         <v>1.03</v>
@@ -1393,7 +1393,7 @@
         <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G8" t="n">
         <v>1.47</v>
@@ -1510,13 +1510,13 @@
         <v>1.81</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
         <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T8" t="n">
         <v>2.28</v>
@@ -1534,13 +1534,13 @@
         <v>14.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
         <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="AB8" t="n">
         <v>7</v>
@@ -1552,7 +1552,7 @@
         <v>44</v>
       </c>
       <c r="AE8" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AF8" t="n">
         <v>7.6</v>
@@ -1582,7 +1582,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO8" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="I9" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.56</v>
@@ -1636,16 +1636,16 @@
         <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O9" t="n">
         <v>1.55</v>
       </c>
       <c r="P9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R9" t="n">
         <v>1.2</v>
@@ -1657,13 +1657,13 @@
         <v>2.14</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V9" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X9" t="n">
         <v>8.800000000000001</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G10" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K10" t="n">
         <v>5.3</v>
@@ -1771,46 +1771,46 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T10" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="V10" t="n">
         <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
         <v>130</v>
       </c>
       <c r="AA10" t="n">
-        <v>810</v>
+        <v>710</v>
       </c>
       <c r="AB10" t="n">
         <v>6.6</v>
@@ -1819,10 +1819,10 @@
         <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE10" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AF10" t="n">
         <v>6.8</v>
@@ -1831,10 +1831,10 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AI10" t="n">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="AJ10" t="n">
         <v>10.5</v>
@@ -1846,13 +1846,13 @@
         <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="AN10" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -667,97 +667,97 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="G2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>5.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.57</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.54</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="V2" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
         <v>27</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
         <v>20</v>
@@ -766,13 +766,13 @@
         <v>28</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -811,37 +811,37 @@
         <v>3.55</v>
       </c>
       <c r="I3" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
         <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S3" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
         <v>1.64</v>
@@ -937,55 +937,55 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="I4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S4" t="n">
         <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="W4" t="n">
         <v>1.2</v>
@@ -994,16 +994,16 @@
         <v>19.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AC4" t="n">
         <v>10.5</v>
@@ -1018,22 +1018,22 @@
         <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AK4" t="n">
         <v>380</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>2.18</v>
       </c>
       <c r="T5" t="n">
-        <v>1.64</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
         <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
         <v>3.1</v>
@@ -1231,16 +1231,16 @@
         <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="O6" t="n">
         <v>1.58</v>
       </c>
       <c r="P6" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R6" t="n">
         <v>1.19</v>
@@ -1249,67 +1249,67 @@
         <v>5.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U6" t="n">
         <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA6" t="n">
         <v>50</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG6" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>15</v>
-      </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL6" t="n">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="AO6" t="n">
         <v>55</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="G7" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="H7" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1375,13 +1375,13 @@
         <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>1.56</v>
+        <v>2.72</v>
       </c>
       <c r="T7" t="n">
         <v>1.03</v>
@@ -1390,10 +1390,10 @@
         <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="W7" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1480,13 +1480,13 @@
         <v>1.44</v>
       </c>
       <c r="G8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="I8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
         <v>4.4</v>
@@ -1495,52 +1495,52 @@
         <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
         <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
         <v>3.65</v>
       </c>
       <c r="T8" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
         <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
         <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AA8" t="n">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="AB8" t="n">
         <v>7</v>
@@ -1549,16 +1549,16 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AE8" t="n">
-        <v>260</v>
+        <v>960</v>
       </c>
       <c r="AF8" t="n">
         <v>7.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>36</v>
@@ -1582,7 +1582,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO8" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I9" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -1630,16 +1630,16 @@
         <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P9" t="n">
         <v>1.55</v>
@@ -1657,10 +1657,10 @@
         <v>2.14</v>
       </c>
       <c r="U9" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W9" t="n">
         <v>1.48</v>
@@ -1675,7 +1675,7 @@
         <v>16</v>
       </c>
       <c r="AA9" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB9" t="n">
         <v>8.800000000000001</v>
@@ -1717,7 +1717,7 @@
         <v>60</v>
       </c>
       <c r="AO9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
         <v>5.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1777,10 +1777,10 @@
         <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R10" t="n">
         <v>1.31</v>
@@ -1789,7 +1789,7 @@
         <v>3.9</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="U10" t="n">
         <v>1.58</v>
@@ -1798,7 +1798,7 @@
         <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
@@ -1807,16 +1807,16 @@
         <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="n">
         <v>710</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
         <v>50</v>
@@ -1834,7 +1834,7 @@
         <v>42</v>
       </c>
       <c r="AI10" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
         <v>10.5</v>
@@ -1846,13 +1846,13 @@
         <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,85 +667,85 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G2" t="n">
         <v>2.18</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.26</v>
-      </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.54</v>
+        <v>2.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="T2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U2" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="n">
         <v>15</v>
       </c>
-      <c r="AC2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
@@ -757,28 +757,28 @@
         <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK2" t="n">
         <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Flora Tallinn II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="G3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R3" t="n">
         <v>2.12</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>1.63</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="V3" t="n">
-        <v>1.34</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>1.89</v>
+        <v>3.75</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="Z3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>12.5</v>
+        <v>3.15</v>
       </c>
       <c r="AO3" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.7</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.67</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.72</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="V4" t="n">
-        <v>2.36</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.91</v>
       </c>
       <c r="X4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD4" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AE4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG4" t="n">
         <v>11</v>
       </c>
-      <c r="AA4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>23</v>
-      </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>380</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM4" t="n">
         <v>300</v>
       </c>
-      <c r="AM4" t="n">
-        <v>580</v>
-      </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.86</v>
       </c>
-      <c r="G5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.03</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.24</v>
+        <v>2.42</v>
       </c>
       <c r="W5" t="n">
-        <v>1.99</v>
+        <v>1.19</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1.66</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.74</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>5.8</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.16</v>
       </c>
       <c r="W6" t="n">
-        <v>1.48</v>
+        <v>2.36</v>
       </c>
       <c r="X6" t="n">
-        <v>8.4</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.6</v>
+        <v>16</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN6" t="n">
         <v>55</v>
       </c>
-      <c r="AK6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>70</v>
-      </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Olancho</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.07</v>
+        <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>1.81</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>5.4</v>
+        <v>2.78</v>
       </c>
       <c r="I7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z7" t="n">
         <v>16.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="G8" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="H8" t="n">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.22</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="W8" t="n">
-        <v>3.05</v>
+        <v>2.58</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO8" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.96</v>
+        <v>1.47</v>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.82</v>
+        <v>9.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>11.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.66</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="U9" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
-        <v>1.52</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.48</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.4</v>
+        <v>26</v>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="AA9" t="n">
-        <v>48</v>
+        <v>500</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AC9" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AE9" t="n">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="AF9" t="n">
-        <v>17.5</v>
+        <v>7.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="AJ9" t="n">
-        <v>60</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="AN9" t="n">
-        <v>60</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO9" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10">
@@ -1738,255 +1738,390 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.37</v>
+        <v>2.96</v>
       </c>
       <c r="G10" t="n">
-        <v>1.39</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>2.84</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>2.92</v>
       </c>
       <c r="J10" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>2.74</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.14</v>
+        <v>2.66</v>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="S10" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.6</v>
+        <v>2.12</v>
       </c>
       <c r="U10" t="n">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.08</v>
+        <v>1.52</v>
       </c>
       <c r="W10" t="n">
-        <v>3.55</v>
+        <v>1.49</v>
       </c>
       <c r="X10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG10" t="n">
         <v>14</v>
       </c>
-      <c r="Y10" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>710</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>330</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
       <c r="AH10" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
-        <v>680</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>710</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>310</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Honduras Liga Nacional</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2025-10-16</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>CD Olimpia</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>CD Motagua</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>1.04</v>
       </c>
-      <c r="G11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.04</v>
       </c>
-      <c r="I11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J12" t="n">
         <v>1.03</v>
       </c>
-      <c r="K11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="K12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L12" t="n">
         <v>1.01</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M12" t="n">
         <v>1.05</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N12" t="n">
         <v>1.36</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.36</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="Q12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.18</v>
       </c>
-      <c r="S11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T11" t="n">
+      <c r="S12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.03</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U12" t="n">
         <v>1.03</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V12" t="n">
         <v>1.01</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W12" t="n">
         <v>1.01</v>
       </c>
-      <c r="X11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO11" t="n">
+      <c r="X12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO12" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -688,79 +688,79 @@
         <v>1.28</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R2" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="W2" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="n">
         <v>16</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>26</v>
@@ -769,16 +769,16 @@
         <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Finnish Kakkonen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viimsi JK</t>
+          <t>TPV</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Flora Tallinn II</t>
+          <t>Tampereen Ilves II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.25</v>
+        <v>3.95</v>
       </c>
       <c r="G3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.35</v>
       </c>
-      <c r="H3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.26</v>
-      </c>
       <c r="R3" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="S3" t="n">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="T3" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="U3" t="n">
-        <v>2.28</v>
+        <v>2.84</v>
       </c>
       <c r="V3" t="n">
-        <v>1.09</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>3.75</v>
+        <v>1.27</v>
       </c>
       <c r="X3" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB3" t="n">
         <v>980</v>
       </c>
       <c r="AC3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE3" t="n">
         <v>980</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AH3" t="n">
         <v>980</v>
       </c>
       <c r="AI3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>95</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>980</v>
-      </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AL3" t="n">
         <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.15</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>90</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Flora Tallinn II</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.02</v>
+        <v>1.36</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>1.43</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>7.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>5.7</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>2.44</v>
+        <v>3.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.41</v>
       </c>
       <c r="R4" t="n">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="T4" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="U4" t="n">
-        <v>2.52</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="W4" t="n">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG4" t="n">
         <v>23</v>
       </c>
-      <c r="Z4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>4.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="G5" t="n">
-        <v>6.4</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
-        <v>1.66</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7</v>
+        <v>3.35</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="V5" t="n">
-        <v>2.42</v>
+        <v>1.42</v>
       </c>
       <c r="W5" t="n">
-        <v>1.19</v>
+        <v>1.74</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK5" t="n">
         <v>22</v>
       </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>250</v>
-      </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>600</v>
+        <v>13.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.66</v>
+        <v>5.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>6.2</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>1.68</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>1.72</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.16</v>
+        <v>2.38</v>
       </c>
       <c r="W6" t="n">
-        <v>2.36</v>
+        <v>1.19</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>230</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.05</v>
+        <v>1.67</v>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>1.72</v>
       </c>
       <c r="H7" t="n">
-        <v>2.78</v>
+        <v>6.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.74</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.55</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.47</v>
+        <v>2.36</v>
       </c>
       <c r="X7" t="n">
-        <v>8.4</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>18</v>
+        <v>9.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AO7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Olancho</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.49</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>1.63</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S8" t="n">
         <v>6.2</v>
       </c>
-      <c r="I8" t="n">
+      <c r="T8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X8" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X8" t="n">
-        <v>19.5</v>
-      </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>7.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15.5</v>
+        <v>60</v>
       </c>
       <c r="AK8" t="n">
-        <v>17.5</v>
+        <v>48</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.199999999999999</v>
+        <v>65</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="H9" t="n">
-        <v>9.4</v>
+        <v>5.7</v>
       </c>
       <c r="I9" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.26</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>2.58</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="Y9" t="n">
         <v>26</v>
       </c>
       <c r="Z9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO9" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.96</v>
+        <v>1.45</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>1.51</v>
       </c>
       <c r="H10" t="n">
-        <v>2.84</v>
+        <v>8.4</v>
       </c>
       <c r="I10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W10" t="n">
         <v>2.92</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.49</v>
-      </c>
       <c r="X10" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.6</v>
+        <v>25</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="AA10" t="n">
+        <v>960</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL10" t="n">
         <v>50</v>
       </c>
-      <c r="AB10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>70</v>
-      </c>
       <c r="AM10" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>9.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>48</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11">
@@ -1873,255 +1873,390 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.38</v>
+        <v>2.96</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>2.92</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>2.96</v>
       </c>
       <c r="J11" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>3.5</v>
+        <v>2.58</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="P11" t="n">
-        <v>1.87</v>
+        <v>1.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.84</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2.54</v>
+        <v>2.22</v>
       </c>
       <c r="U11" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.09</v>
+        <v>1.51</v>
       </c>
       <c r="W11" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>28</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>710</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
-        <v>6.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK11" t="n">
         <v>46</v>
       </c>
-      <c r="AE11" t="n">
-        <v>310</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>18</v>
-      </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.199999999999999</v>
+        <v>380</v>
       </c>
       <c r="AO11" t="n">
-        <v>680</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>660</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Honduras Liga Nacional</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>2025-10-16</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>CD Olimpia</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>CD Motagua</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="F13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.03</v>
       </c>
-      <c r="K12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="U13" t="n">
         <v>1.03</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="V13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO13" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Finnish Kakkonen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>TPV</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Tampereen Ilves II</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H2" t="n">
+        <v>110</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S2" t="n">
         <v>2.3</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>3.3</v>
       </c>
       <c r="U2" t="n">
-        <v>2.76</v>
+        <v>1.27</v>
       </c>
       <c r="V2" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.76</v>
+        <v>100</v>
       </c>
       <c r="X2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>30</v>
+        <v>1.8</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>800</v>
       </c>
       <c r="AM2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>10.5</v>
+        <v>4.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Finnish Kakkonen</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TPV</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tampereen Ilves II</t>
+          <t>Flora Tallinn II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.95</v>
+        <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S3" t="n">
+        <v>30</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.7</v>
       </c>
-      <c r="I3" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.27</v>
-      </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>3.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AA3" t="n">
-        <v>980</v>
+        <v>510</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>620</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viimsi JK</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Flora Tallinn II</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.36</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>1.43</v>
+        <v>2.74</v>
       </c>
       <c r="H4" t="n">
-        <v>7.4</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="K4" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.23</v>
+        <v>4.7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>2.26</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>1.76</v>
       </c>
       <c r="P4" t="n">
-        <v>3.05</v>
+        <v>1.34</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.41</v>
+        <v>3.85</v>
       </c>
       <c r="R4" t="n">
-        <v>1.86</v>
+        <v>1.1</v>
       </c>
       <c r="S4" t="n">
-        <v>2.06</v>
+        <v>9.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.68</v>
+        <v>2.72</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>1.52</v>
       </c>
       <c r="V4" t="n">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
-        <v>3.25</v>
+        <v>1.57</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>6.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB4" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AM4" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.4</v>
+        <v>85</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.3</v>
       </c>
-      <c r="G5" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="W5" t="n">
         <v>1.22</v>
       </c>
-      <c r="P5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.74</v>
-      </c>
       <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
         <v>20</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI5" t="n">
         <v>36</v>
       </c>
-      <c r="AF5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>42</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>13.5</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="n">
-        <v>25</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.8</v>
+        <v>1.65</v>
       </c>
       <c r="G6" t="n">
-        <v>6.2</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.68</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.72</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>3.9</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.84</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V6" t="n">
-        <v>2.38</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>1.19</v>
+        <v>2.42</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG6" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>22</v>
-      </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.67</v>
+        <v>3.55</v>
       </c>
       <c r="G7" t="n">
-        <v>1.72</v>
+        <v>3.65</v>
       </c>
       <c r="H7" t="n">
-        <v>6.2</v>
+        <v>2.48</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="O7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.37</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.36</v>
-      </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.6</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>900</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>1.63</v>
       </c>
       <c r="H8" t="n">
-        <v>2.74</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.76</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>2.64</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.8</v>
+        <v>1.72</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>6.2</v>
+        <v>2.62</v>
       </c>
       <c r="T8" t="n">
-        <v>2.22</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.56</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>1.46</v>
+        <v>2.58</v>
       </c>
       <c r="X8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="Y8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>65</v>
-      </c>
       <c r="AO8" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Olancho</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G9" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="H9" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="I9" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="X9" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>2.88</v>
       </c>
       <c r="G10" t="n">
-        <v>1.51</v>
+        <v>2.92</v>
       </c>
       <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X10" t="n">
         <v>8.4</v>
       </c>
-      <c r="I10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD10" t="n">
         <v>14</v>
       </c>
-      <c r="Y10" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>960</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>44</v>
       </c>
-      <c r="AE10" t="n">
-        <v>200</v>
-      </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>16.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.6</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
-        <v>340</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.96</v>
+        <v>1.36</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1.38</v>
       </c>
       <c r="H11" t="n">
-        <v>2.92</v>
+        <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>2.96</v>
+        <v>12.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.15</v>
+        <v>5.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>2.58</v>
+        <v>3.95</v>
       </c>
       <c r="O11" t="n">
-        <v>1.6</v>
+        <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.84</v>
+        <v>1.94</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="S11" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51</v>
+        <v>1.08</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>3.65</v>
       </c>
       <c r="X11" t="n">
-        <v>8.199999999999999</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="AA11" t="n">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF11" t="n">
         <v>7</v>
       </c>
-      <c r="AD11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>10.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>46</v>
+        <v>15.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN11" t="n">
-        <v>380</v>
+        <v>6.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>55</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,260 +2003,125 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.37</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H12" t="n">
-        <v>12</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.36</v>
-      </c>
       <c r="S12" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="T12" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>3.6</v>
+        <v>2.04</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-10-16</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO13" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Finnish Kakkonen</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TPV</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tampereen Ilves II</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>110</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="T2" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>100</v>
+        <v>2.76</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,19 +757,19 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.8</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viimsi JK</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Flora Tallinn II</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>5.9</v>
+        <v>2.44</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>2.46</v>
       </c>
       <c r="J3" t="n">
-        <v>2.34</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>2.48</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
-        <v>1.41</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>1.47</v>
+        <v>2.8</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>1.54</v>
       </c>
       <c r="P3" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.6</v>
+        <v>2.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>30</v>
+        <v>5.6</v>
       </c>
       <c r="T3" t="n">
-        <v>4.4</v>
+        <v>2.14</v>
       </c>
       <c r="U3" t="n">
-        <v>1.21</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>1.7</v>
+        <v>1.39</v>
       </c>
       <c r="X3" t="n">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>65</v>
+        <v>13.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>510</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD3" t="n">
         <v>12</v>
       </c>
-      <c r="AD3" t="n">
-        <v>70</v>
-      </c>
       <c r="AE3" t="n">
-        <v>620</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN3" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>1.54</v>
       </c>
       <c r="G4" t="n">
-        <v>2.74</v>
+        <v>1.59</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>6.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>8.4</v>
       </c>
       <c r="J4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S4" t="n">
         <v>2.8</v>
       </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>9.4</v>
-      </c>
       <c r="T4" t="n">
-        <v>2.72</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.52</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>1.57</v>
+        <v>2.68</v>
       </c>
       <c r="X4" t="n">
-        <v>6.2</v>
+        <v>19.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.6</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH4" t="n">
         <v>23</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AI4" t="n">
         <v>95</v>
       </c>
-      <c r="AB4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
         <v>16</v>
       </c>
-      <c r="AH4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>60</v>
-      </c>
       <c r="AL4" t="n">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>85</v>
+        <v>7.8</v>
       </c>
       <c r="AO4" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
-        <v>5.7</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>1.72</v>
+        <v>7.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.77</v>
+        <v>9.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>2.3</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>2.88</v>
       </c>
       <c r="X5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>960</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK5" t="n">
         <v>17</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AL5" t="n">
         <v>44</v>
       </c>
-      <c r="AG5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>270</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>70</v>
-      </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>120</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO5" t="n">
-        <v>10.5</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.65</v>
+        <v>2.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC6" t="n">
         <v>7</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X6" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AD6" t="n">
-        <v>50</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM6" t="n">
         <v>170</v>
       </c>
-      <c r="AM6" t="n">
-        <v>580</v>
-      </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.55</v>
+        <v>1.4</v>
       </c>
       <c r="G7" t="n">
-        <v>3.65</v>
+        <v>1.41</v>
       </c>
       <c r="H7" t="n">
-        <v>2.48</v>
+        <v>11.5</v>
       </c>
       <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.26</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="V7" t="n">
-        <v>1.66</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.37</v>
+        <v>3.4</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.2</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.5</v>
+        <v>100</v>
       </c>
       <c r="AA7" t="n">
-        <v>36</v>
+        <v>530</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="AE7" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
         <v>38</v>
       </c>
-      <c r="AF7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>25</v>
-      </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="AJ7" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL7" t="n">
         <v>60</v>
       </c>
-      <c r="AL7" t="n">
-        <v>85</v>
-      </c>
       <c r="AM7" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="AN7" t="n">
-        <v>90</v>
+        <v>7.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1463,39 +1463,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Olancho</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1504,624 +1504,84 @@
         <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S8" t="n">
-        <v>2.62</v>
+        <v>2.96</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>2.58</v>
+        <v>1.97</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-10-16</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Quindio</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Tigres FC Zipaquira</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="X9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-10-16</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>EC Vitoria Salvador</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Bahia</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-10-16</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Fluminense</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H11" t="n">
-        <v>12</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="X11" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>550</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-10-16</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO12" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>28</v>
       </c>
       <c r="I2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>150</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
-        <v>4.4</v>
+        <v>2.12</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>2.76</v>
+        <v>3.85</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>18.5</v>
+        <v>1.88</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,10 +760,10 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.44</v>
       </c>
-      <c r="I3" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.13</v>
-      </c>
       <c r="N3" t="n">
-        <v>2.8</v>
+        <v>1.08</v>
       </c>
       <c r="O3" t="n">
-        <v>1.54</v>
+        <v>11.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.62</v>
+        <v>80</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>5.6</v>
+        <v>310</v>
       </c>
       <c r="T3" t="n">
-        <v>2.14</v>
+        <v>24</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.08</v>
       </c>
       <c r="W3" t="n">
         <v>1.39</v>
       </c>
       <c r="X3" t="n">
-        <v>8.6</v>
+        <v>1.68</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>4.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.2</v>
+        <v>990</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -923,666 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Olancho</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="G4" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="P4" t="n">
-        <v>2.14</v>
+        <v>2.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>2.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN4" t="n">
         <v>10</v>
       </c>
-      <c r="AG4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AO4" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-10-16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Quindio</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Tigres FC Zipaquira</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="X5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>960</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-10-16</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>EC Vitoria Salvador</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Bahia</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-10-16</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Fluminense</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>530</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>230</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-10-16</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
